--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rln3-Rxfp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rln3-Rxfp4.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.418405666666667</v>
+        <v>5.197675333333334</v>
       </c>
       <c r="N2">
-        <v>13.255217</v>
+        <v>15.593026</v>
       </c>
       <c r="O2">
-        <v>0.2376536511931901</v>
+        <v>0.4667706154782232</v>
       </c>
       <c r="P2">
-        <v>0.23765365119319</v>
+        <v>0.4667706154782231</v>
       </c>
       <c r="Q2">
-        <v>0.636197395132</v>
+        <v>0.7484028758960001</v>
       </c>
       <c r="R2">
-        <v>5.725776556188</v>
+        <v>6.735625883064001</v>
       </c>
       <c r="S2">
-        <v>0.2376536511931901</v>
+        <v>0.4667706154782232</v>
       </c>
       <c r="T2">
-        <v>0.23765365119319</v>
+        <v>0.4667706154782231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>5.750881</v>
       </c>
       <c r="O3">
-        <v>0.1031079209965061</v>
+        <v>0.1721501820052131</v>
       </c>
       <c r="P3">
-        <v>0.1031079209965061</v>
+        <v>0.172150182005213</v>
       </c>
       <c r="Q3">
         <v>0.276019284476</v>
@@ -641,10 +641,10 @@
         <v>2.484173560284</v>
       </c>
       <c r="S3">
-        <v>0.1031079209965061</v>
+        <v>0.1721501820052131</v>
       </c>
       <c r="T3">
-        <v>0.1031079209965061</v>
+        <v>0.172150182005213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.442876333333333</v>
+        <v>0.9113383333333335</v>
       </c>
       <c r="N4">
-        <v>7.328628999999999</v>
+        <v>2.734015</v>
       </c>
       <c r="O4">
-        <v>0.1313954679195593</v>
+        <v>0.08184157868246321</v>
       </c>
       <c r="P4">
-        <v>0.1313954679195593</v>
+        <v>0.08184157868246318</v>
       </c>
       <c r="Q4">
-        <v>0.351744877484</v>
+        <v>0.13122178394</v>
       </c>
       <c r="R4">
-        <v>3.165703897356</v>
+        <v>1.18099605546</v>
       </c>
       <c r="S4">
-        <v>0.1313954679195593</v>
+        <v>0.08184157868246321</v>
       </c>
       <c r="T4">
-        <v>0.1313954679195593</v>
+        <v>0.08184157868246318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.304502666666667</v>
+        <v>0.9066646666666666</v>
       </c>
       <c r="N5">
-        <v>18.913508</v>
+        <v>2.719994</v>
       </c>
       <c r="O5">
-        <v>0.3391015200333281</v>
+        <v>0.08142186599811185</v>
       </c>
       <c r="P5">
-        <v>0.339101520033328</v>
+        <v>0.08142186599811183</v>
       </c>
       <c r="Q5">
-        <v>0.9077727299680001</v>
+        <v>0.130548832024</v>
       </c>
       <c r="R5">
-        <v>8.169954569712001</v>
+        <v>1.174939488216</v>
       </c>
       <c r="S5">
-        <v>0.3391015200333281</v>
+        <v>0.08142186599811185</v>
       </c>
       <c r="T5">
-        <v>0.339101520033328</v>
+        <v>0.08142186599811183</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.523698</v>
+        <v>1.443486333333333</v>
       </c>
       <c r="N6">
-        <v>4.571094</v>
+        <v>4.330459</v>
       </c>
       <c r="O6">
-        <v>0.08195544283034249</v>
+        <v>0.1296304522761144</v>
       </c>
       <c r="P6">
-        <v>0.08195544283034248</v>
+        <v>0.1296304522761144</v>
       </c>
       <c r="Q6">
-        <v>0.219394227624</v>
+        <v>0.207844710164</v>
       </c>
       <c r="R6">
-        <v>1.974548048616</v>
+        <v>1.870602391476</v>
       </c>
       <c r="S6">
-        <v>0.08195544283034249</v>
+        <v>0.1296304522761144</v>
       </c>
       <c r="T6">
-        <v>0.08195544283034248</v>
+        <v>0.1296304522761144</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.985342333333333</v>
+        <v>0.7592703333333333</v>
       </c>
       <c r="N7">
-        <v>5.956027</v>
+        <v>2.277811</v>
       </c>
       <c r="O7">
-        <v>0.1067859970270741</v>
+        <v>0.06818530555987445</v>
       </c>
       <c r="P7">
-        <v>0.1067859970270741</v>
+        <v>0.06818530555987443</v>
       </c>
       <c r="Q7">
-        <v>0.285865471892</v>
+        <v>0.109325816756</v>
       </c>
       <c r="R7">
-        <v>2.572789247028</v>
+        <v>0.983932350804</v>
       </c>
       <c r="S7">
-        <v>0.1067859970270741</v>
+        <v>0.06818530555987445</v>
       </c>
       <c r="T7">
-        <v>0.1067859970270741</v>
+        <v>0.06818530555987443</v>
       </c>
     </row>
   </sheetData>
